--- a/src/test/resources/Excel/HSM-Login.xlsx
+++ b/src/test/resources/Excel/HSM-Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\ProjectFrameworkHMS\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C40A9D-826F-44DC-99E7-57CD13D6CB8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B277B-63BB-43B3-93D4-77028E1022DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>Confirm Password</t>
   </si>
   <si>
-    <t>DoctorConsultancyFees</t>
+    <t>Doctor Consultancy Fees</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
